--- a/_doc/Change Request Tracker.xlsx
+++ b/_doc/Change Request Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QProject\python\dynamic_law\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qproject\python\dynamic_law\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B294D44-A49A-4F63-95C0-2AF49552974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA26DB41-EB12-4D33-9162-21953D365B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{601B8631-4B8D-4B32-8BFB-1729D7B18EAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{601B8631-4B8D-4B32-8BFB-1729D7B18EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Issue</t>
   </si>
@@ -305,22 +296,55 @@
     <t>permintaan server development</t>
   </si>
   <si>
-    <t>company data editor</t>
-  </si>
-  <si>
     <t>Start date dan upload date, delete is_copy</t>
   </si>
   <si>
-    <t>is it possible for dataset_form_browser changed into tree like ? so it can be collapse or expanded ?</t>
-  </si>
-  <si>
-    <t>copy compliance sheet</t>
-  </si>
-  <si>
-    <t>when deleting in dataset_form_browser (company_data_structure and complliance_sheet_structure table), can 'input_code' to be renumbering ? for example i have input_code 1.1.1, 1.1.2, and 1.1.3. if i delete 1.1.2, it will 'renumberig' into 1.1.1 and 1.1.2 (from actualy 1.1.3)</t>
-  </si>
-  <si>
     <t>New table, when editing, the old company_data_entries and compliance_sheet_entries should 'copying' into that table as 'history' for audit before save (update)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Company Data Editor</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>On Going</t>
+  </si>
+  <si>
+    <t>Dropped</t>
+  </si>
+  <si>
+    <t>Ready for Test</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Forgot Password Page</t>
+  </si>
+  <si>
+    <t>Collapsible / Expandable Structure</t>
+  </si>
+  <si>
+    <t>Copy template Structure</t>
+  </si>
+  <si>
+    <t>Auto Renumbering Structure</t>
+  </si>
+  <si>
+    <t>Upload File + Zip + Encryoted</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Ladvo Compliance Sheet </t>
   </si>
 </sst>
 </file>
@@ -369,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -382,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,161 +802,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27CF0B3-A2B0-418B-AF76-549EAA480E76}">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.28515625" customWidth="1"/>
+    <col min="4" max="8" width="16.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2">
+    <row r="1" spans="2:8">
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4">
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5">
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6">
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8">
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10">
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="C11" t="s">
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="C12" t="s">
+      <c r="E12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13">
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>11</v>
+      </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="G17" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30">
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="30">
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="45">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_doc/Change Request Tracker.xlsx
+++ b/_doc/Change Request Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qproject\python\dynamic_law\_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QProject\python\dynamic_law\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA26DB41-EB12-4D33-9162-21953D365B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E57C32-28CB-43DD-8A2A-6676A17EC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{601B8631-4B8D-4B32-8BFB-1729D7B18EAB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{601B8631-4B8D-4B32-8BFB-1729D7B18EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>Issue</t>
   </si>
@@ -345,6 +345,39 @@
   </si>
   <si>
     <t xml:space="preserve">Convert Ladvo Compliance Sheet </t>
+  </si>
+  <si>
+    <t>Kosmetik Dynamic Title</t>
+  </si>
+  <si>
+    <t>Hardening Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ </t>
+  </si>
+  <si>
+    <t>Password Hashing</t>
+  </si>
+  <si>
+    <t>Limit Login Attempts</t>
+  </si>
+  <si>
+    <t>CSRF Protection</t>
+  </si>
+  <si>
+    <t>XSS &amp; Input Sanitization</t>
+  </si>
+  <si>
+    <t>Session Management</t>
+  </si>
+  <si>
+    <t>Hardening all HTML</t>
+  </si>
+  <si>
+    <t>Hardening Development Server</t>
+  </si>
+  <si>
+    <t>Building  Development Server</t>
   </si>
 </sst>
 </file>
@@ -373,15 +406,21 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -389,11 +428,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -405,13 +459,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27CF0B3-A2B0-418B-AF76-549EAA480E76}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,285 +874,529 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.28515625" customWidth="1"/>
-    <col min="4" max="8" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="8" width="16.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
-      <c r="D1" s="5" t="s">
+    <row r="2" spans="2:8">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="2:8">
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="D3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3">
+    <row r="4" spans="2:8">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5">
+      <c r="D5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6">
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8">
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9">
+      <c r="D9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10">
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="C12" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="C13" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="8">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="8">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="8">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="8">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30">
-      <c r="B18">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" ht="30">
+      <c r="B19" s="8">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="8">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="8">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="8">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="8">
         <v>18</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="8">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="8">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="8">
+        <v>23</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="8">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="8">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="8">
+        <v>26</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="8">
+        <v>27</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="8">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="8">
+        <v>29</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="8">
+        <v>30</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="8">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
